--- a/src/cab/perm/falcon.x.tabular.xlsx
+++ b/src/cab/perm/falcon.x.tabular.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/role/ADMIN.SUPER/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/uniform-ui/vertx-ai/src/cab/perm/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02086D7C-31BE-5B43-9885-08236AFC9A27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACC63A1B-7690-5C4F-A18A-89FA133A9B19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="22560" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
@@ -163,7 +163,7 @@
     <t>字典导入/导出</t>
   </si>
   <si>
-    <t>e501b47a-c08b-4c83-b12b-95ad82873e96</t>
+    <t>#ROLE_ID#</t>
   </si>
 </sst>
 </file>
@@ -694,7 +694,7 @@
   <dimension ref="A5:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A3:XFD11"/>
+      <selection activeCell="A8" sqref="A8:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="21"/>

--- a/src/cab/perm/falcon.x.tabular.xlsx
+++ b/src/cab/perm/falcon.x.tabular.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/uniform-ui/vertx-ai/src/cab/perm/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-ambient/src/main/resources/plugin/ambient/oob/role/ADMIN.SUPER/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACC63A1B-7690-5C4F-A18A-89FA133A9B19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02086D7C-31BE-5B43-9885-08236AFC9A27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="22560" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
@@ -163,7 +163,7 @@
     <t>字典导入/导出</t>
   </si>
   <si>
-    <t>#ROLE_ID#</t>
+    <t>e501b47a-c08b-4c83-b12b-95ad82873e96</t>
   </si>
 </sst>
 </file>
@@ -694,7 +694,7 @@
   <dimension ref="A5:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:A13"/>
+      <selection activeCell="A11" sqref="A3:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="21"/>
